--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leesh\Documents\GitHub\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8079A2-53D4-4B5B-8DDE-08D8F76EB1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D7D1A-97B9-4B6F-9ADF-3C5064D46B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Expences</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Misc.</t>
   </si>
   <si>
-    <t>POF</t>
-  </si>
-  <si>
     <t>POF-1</t>
   </si>
   <si>
@@ -60,6 +54,57 @@
   </si>
   <si>
     <t>Note/Remarks</t>
+  </si>
+  <si>
+    <t>POF-4</t>
+  </si>
+  <si>
+    <t>yero flat .9 (4x8)</t>
+  </si>
+  <si>
+    <t>flat bar</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Insulation, stainless handles</t>
+  </si>
+  <si>
+    <t>clear coat</t>
+  </si>
+  <si>
+    <t>rugby, roller catches, spray paint white</t>
+  </si>
+  <si>
+    <t>POF-5</t>
+  </si>
+  <si>
+    <t>POF-6</t>
+  </si>
+  <si>
+    <t>POF-7</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -418,70 +463,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1690</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>44679</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>A2+A3+A4+A5+A8+A9+A10+B11+B7+B6</f>
+        <v>5050</v>
+      </c>
+      <c r="G2">
+        <v>7000</v>
+      </c>
+      <c r="H2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>44680</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>44680</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>275</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leesh\Documents\GitHub\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D7D1A-97B9-4B6F-9ADF-3C5064D46B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6B35A-4DBF-47F5-A55C-C4BFFEDEA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spray paint 2x</t>
+  </si>
+  <si>
+    <t>spray paint 2x</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>POF-8</t>
+  </si>
+  <si>
+    <t>POF-9</t>
   </si>
 </sst>
 </file>
@@ -463,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +551,9 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="H3">
+        <v>1510</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -643,6 +661,48 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44684</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44684</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44684</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leesh\Documents\GitHub\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6B35A-4DBF-47F5-A55C-C4BFFEDEA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F56265-AB3D-420D-8F57-98EFE5EA4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -44,21 +44,9 @@
     <t>Misc.</t>
   </si>
   <si>
-    <t>POF-1</t>
-  </si>
-  <si>
-    <t>POF-2</t>
-  </si>
-  <si>
-    <t>POF-3</t>
-  </si>
-  <si>
     <t>Note/Remarks</t>
   </si>
   <si>
-    <t>POF-4</t>
-  </si>
-  <si>
     <t>yero flat .9 (4x8)</t>
   </si>
   <si>
@@ -80,15 +68,6 @@
     <t>rugby, roller catches, spray paint white</t>
   </si>
   <si>
-    <t>POF-5</t>
-  </si>
-  <si>
-    <t>POF-6</t>
-  </si>
-  <si>
-    <t>POF-7</t>
-  </si>
-  <si>
     <t>labor</t>
   </si>
   <si>
@@ -98,15 +77,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
     <t xml:space="preserve"> spray paint 2x</t>
   </si>
   <si>
@@ -116,10 +86,13 @@
     <t>Gas</t>
   </si>
   <si>
-    <t>POF-8</t>
-  </si>
-  <si>
-    <t>POF-9</t>
+    <t>1/4 Glass</t>
+  </si>
+  <si>
+    <t>s. matting</t>
+  </si>
+  <si>
+    <t>s. paint</t>
   </si>
 </sst>
 </file>
@@ -478,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,9 +464,9 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -502,22 +475,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1690</v>
       </c>
@@ -527,46 +491,33 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <f>A2+A3+A4+A5+A8+A9+A10+B11+B7+B6</f>
-        <v>5050</v>
-      </c>
-      <c r="G2">
-        <v>7000</v>
-      </c>
-      <c r="H2">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>44680</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>44680</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1200</v>
       </c>
@@ -574,13 +525,13 @@
         <v>44682</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -588,13 +539,13 @@
         <v>44682</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>165</v>
       </c>
@@ -602,13 +553,13 @@
         <v>44683</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>350</v>
       </c>
@@ -616,13 +567,13 @@
         <v>44683</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -630,13 +581,13 @@
         <v>44683</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>275</v>
       </c>
@@ -644,13 +595,13 @@
         <v>44683</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1000</v>
       </c>
@@ -658,13 +609,13 @@
         <v>44683</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200</v>
       </c>
@@ -672,13 +623,13 @@
         <v>44684</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200</v>
       </c>
@@ -686,13 +637,13 @@
         <v>44684</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>40</v>
       </c>
@@ -700,10 +651,52 @@
         <v>44684</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44686</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>430</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44686</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44687</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leesh\Documents\GitHub\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Makoy files_DONT REMOVE\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F56265-AB3D-420D-8F57-98EFE5EA4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960811EA-0F90-498A-A7E2-A633191297DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +92,9 @@
   </si>
   <si>
     <t>s. paint</t>
+  </si>
+  <si>
+    <t>fare sa van</t>
   </si>
 </sst>
 </file>
@@ -451,20 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -481,7 +483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1690</v>
       </c>
@@ -495,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -506,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -517,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1200</v>
       </c>
@@ -531,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>200</v>
       </c>
@@ -545,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>165</v>
       </c>
@@ -559,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>350</v>
       </c>
@@ -573,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>120</v>
       </c>
@@ -587,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>275</v>
       </c>
@@ -601,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1000</v>
       </c>
@@ -615,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
@@ -629,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200</v>
       </c>
@@ -643,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>40</v>
       </c>
@@ -657,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200</v>
       </c>
@@ -671,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>430</v>
       </c>
@@ -685,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100</v>
       </c>
@@ -697,6 +699,20 @@
       </c>
       <c r="E17">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>700</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44691</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Makoy files_DONT REMOVE\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960811EA-0F90-498A-A7E2-A633191297DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382338CC-5FEA-40A1-B767-E336F508FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>fare sa van</t>
+  </si>
+  <si>
+    <t>UVC LAMP</t>
+  </si>
+  <si>
+    <t>petri dish</t>
+  </si>
+  <si>
+    <t>premixed nutrient agar</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,6 +724,33 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44774</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
+++ b/0_MARCH_3_2022/POF_Documentation/Expences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Makoy files_DONT REMOVE\Computer-Engineering-Practice-and-Design-2\0_MARCH_3_2022\POF_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382338CC-5FEA-40A1-B767-E336F508FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A08E97-2EC0-4769-8E39-E0049780A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34E937BC-3B4F-43D1-B580-D634078245D1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>premixed nutrient agar</t>
+  </si>
+  <si>
+    <t>cling wrap</t>
+  </si>
+  <si>
+    <t>cotton swab</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3C42-CD89-4EF1-9A03-CFA0B70CDF56}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +757,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
